--- a/Погода/температура-февраль-2025.xlsx
+++ b/Погода/температура-февраль-2025.xlsx
@@ -435,7 +435,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>-1.27</v>
